--- a/biology/Histoire de la zoologie et de la botanique/Eugen_Ferdinand_von_Homeyer/Eugen_Ferdinand_von_Homeyer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugen_Ferdinand_von_Homeyer/Eugen_Ferdinand_von_Homeyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugene Ferdinand von Homeyer est un ornithologue allemand, né le 11 novembre 1809 à Medow, arrondissement d'Anklam (de) et décédé le 31 mai 1889[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugene Ferdinand von Homeyer est un ornithologue allemand, né le 11 novembre 1809 à Medow, arrondissement d'Anklam (de) et décédé le 31 mai 1889.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Homeyer publie plus de 150 articles en ornithologie. Il est le premier à décrire le Traquet de Chypre (Oenanthe cypriaca) et le Gobemouche à demi-collier (Ficedula semitorquata). Il collabore notamment avec Alfred Edmund Brehm (1829-1884). Membre de la Deutsche Ornithologen-Gesellschaft, il la préside en 1883. Sa collection de 20 000 oiseaux est conservée par le muséum de Brunswick.
 </t>
@@ -542,11 +556,13 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se marie en 1840 à Schwichtenberg avec Philippine Ladewig (1814-1872). Le couple a un fils et une fille :
 Eugen Karl Philipp (né le 28 septembre 1843) marié en 1881 avec Mathilde Sophie Karoline Nahl (née le 11 juin 1846)
-Klara (née le 14 juin 1852) mariée en 1874 avec Paul von Zitzewitz (né le 5 octobre 1845)[2], seigneur de Dumröse
+Klara (née le 14 juin 1852) mariée en 1874 avec Paul von Zitzewitz (né le 5 octobre 1845), seigneur de Dumröse
 Il est l’oncle de l’entomologiste Alexander von Homeyer (1834-1903).
 </t>
         </is>
